--- a/PlainTimeInvariant/output/condForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/condForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="242" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="308" uniqueCount="22">
   <si>
     <t>Time</t>
   </si>
@@ -131,23 +131,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="16.28515625" customWidth="true"/>
-    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
     <col min="10" max="10" width="15.5703125" customWidth="true"/>
     <col min="11" max="11" width="13.42578125" customWidth="true"/>
-    <col min="12" max="12" width="14.7109375" customWidth="true"/>
+    <col min="12" max="12" width="15.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.42578125" customWidth="true"/>
-    <col min="15" max="15" width="15.42578125" customWidth="true"/>
+    <col min="15" max="15" width="16.42578125" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.42578125" customWidth="true"/>
-    <col min="18" max="18" width="14.7109375" customWidth="true"/>
+    <col min="18" max="18" width="14.42578125" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
@@ -224,185 +224,197 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>41821</v>
+        <v>42005</v>
       </c>
       <c r="B2" s="0">
-        <v>1.9302901539999999</v>
+        <v>1.2313890251102779</v>
       </c>
       <c r="C2" s="0">
-        <v>1.9302901539999999</v>
+        <v>2.3649726304010628</v>
       </c>
       <c r="D2" s="0">
-        <v>1.9302901539999999</v>
+        <v>3.4404460672422017</v>
       </c>
       <c r="E2" s="0">
-        <v>1.2830366820000001</v>
+        <v>-0.042340329047882819</v>
       </c>
       <c r="F2" s="0">
-        <v>1.2830366820000001</v>
+        <v>0.74558655420226516</v>
       </c>
       <c r="G2" s="0">
-        <v>1.2830366820000001</v>
+        <v>1.4886763502187623</v>
       </c>
       <c r="H2" s="0">
-        <v>0.089999999999999997</v>
+        <v>-0.91999893104370389</v>
       </c>
       <c r="I2" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.070297198895088744</v>
       </c>
       <c r="J2" s="0">
-        <v>0.089999999999999997</v>
+        <v>1.0338221883306029</v>
       </c>
       <c r="K2" s="0">
-        <v>0</v>
+        <v>-1.1756717012727527</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>-0.032692191713265331</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>1.162613385440558</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>-1.3250252499523332</v>
       </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>0.030613796706123728</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>1.1966645240176637</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>-1.1683368586691536</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>0.028077961234970177</v>
       </c>
       <c r="S2" s="0">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
+        <v>1.2453359562301023</v>
+      </c>
+      <c r="T2" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="U2" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="V2" s="0">
+        <v>94.319999999999993</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>41913</v>
+        <v>42095</v>
       </c>
       <c r="B3" s="0">
-        <v>2.6780032060000001</v>
+        <v>0.81499517941979116</v>
       </c>
       <c r="C3" s="0">
-        <v>2.6780032060000001</v>
+        <v>2.179873526972345</v>
       </c>
       <c r="D3" s="0">
-        <v>2.6780032060000001</v>
+        <v>3.5356901613471647</v>
       </c>
       <c r="E3" s="0">
-        <v>0.62355225199999997</v>
+        <v>-0.22907868752375782</v>
       </c>
       <c r="F3" s="0">
-        <v>0.62355225199999997</v>
+        <v>0.84571617095214624</v>
       </c>
       <c r="G3" s="0">
-        <v>0.62355225199999997</v>
+        <v>1.9098801683532438</v>
       </c>
       <c r="H3" s="0">
-        <v>0.10000000000000001</v>
+        <v>-0.82711592448819804</v>
       </c>
       <c r="I3" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.073457831755862707</v>
       </c>
       <c r="J3" s="0">
-        <v>0.10000000000000001</v>
+        <v>1.0434792745710433</v>
       </c>
       <c r="K3" s="0">
-        <v>0</v>
+        <v>-1.1669288134878211</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.01422520675246379</v>
       </c>
       <c r="M3" s="0">
-        <v>0</v>
+        <v>1.1022278815375333</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>-1.1778444845425318</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>-0.00085568452549777962</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>1.2498931065213437</v>
       </c>
       <c r="Q3" s="0">
-        <v>0</v>
+        <v>-1.2439112362149856</v>
       </c>
       <c r="R3" s="0">
-        <v>0</v>
+        <v>0.024752990650924567</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
+        <v>1.2324229458457472</v>
+      </c>
+      <c r="T3" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="U3" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="V3" s="0">
+        <v>94.319999999999993</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>42005</v>
+        <v>42186</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2866935730516391</v>
+        <v>0.43753370814950876</v>
       </c>
       <c r="C4" s="0">
-        <v>2.3935856543254177</v>
+        <v>1.9711650189086778</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5104814060275027</v>
+        <v>3.5345179659495005</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.051076402960668066</v>
+        <v>-0.35411983792676199</v>
       </c>
       <c r="F4" s="0">
-        <v>0.71923146605016486</v>
+        <v>0.9597124412140946</v>
       </c>
       <c r="G4" s="0">
-        <v>1.4960541681303576</v>
+        <v>2.2104002656310273</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.84521279895065193</v>
+        <v>-4.4408920985006262e-16</v>
       </c>
       <c r="I4" s="0">
-        <v>0.030510777166739698</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1.0251015723668622</v>
+        <v>4.4408920985006262e-16</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.1894430504645426</v>
+        <v>-1.0516293746123251</v>
       </c>
       <c r="L4" s="0">
-        <v>0.059912731531868477</v>
+        <v>0.026356218787403702</v>
       </c>
       <c r="M4" s="0">
-        <v>1.1968619180115398</v>
+        <v>1.1743027929287893</v>
       </c>
       <c r="N4" s="0">
-        <v>-1.2736556600041884</v>
+        <v>-1.2299606357827217</v>
       </c>
       <c r="O4" s="0">
-        <v>0.023875964589925192</v>
+        <v>-0.054598872524538891</v>
       </c>
       <c r="P4" s="0">
-        <v>1.1777039717710336</v>
+        <v>1.1850105788773488</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.2085487809878235</v>
+        <v>-1.2460016231609354</v>
       </c>
       <c r="R4" s="0">
-        <v>0.012062649365700617</v>
+        <v>-0.019454098478633382</v>
       </c>
       <c r="S4" s="0">
-        <v>1.2160233581264577</v>
+        <v>1.1791382821287795</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -416,61 +428,61 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>42095</v>
+        <v>42278</v>
       </c>
       <c r="B5" s="0">
-        <v>0.73598310361475994</v>
+        <v>0.15073724901298791</v>
       </c>
       <c r="C5" s="0">
-        <v>2.1830946358044514</v>
+        <v>1.8131169625692607</v>
       </c>
       <c r="D5" s="0">
-        <v>3.5614630651327959</v>
+        <v>3.4517967642665326</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.26820003801214692</v>
+        <v>-0.44160735062541023</v>
       </c>
       <c r="F5" s="0">
-        <v>0.82072443079452473</v>
+        <v>1.0401292375760625</v>
       </c>
       <c r="G5" s="0">
-        <v>1.9046643483786001</v>
+        <v>2.4732244039297013</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.96915306634637188</v>
+        <v>-5.5511151231257827e-16</v>
       </c>
       <c r="I5" s="0">
-        <v>0.017233629779007942</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>1.0009984753800092</v>
+        <v>5.1000870193718129e-16</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.2121652380812411</v>
+        <v>-0.57930951980787948</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.01782703666994942</v>
+        <v>-0.0094155963721093642</v>
       </c>
       <c r="M5" s="0">
-        <v>1.1607149604180913</v>
+        <v>0.58514311685648801</v>
       </c>
       <c r="N5" s="0">
-        <v>-1.3455184578249384</v>
+        <v>-1.2867160975307863</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.051139303948094239</v>
+        <v>-0.019283545066059237</v>
       </c>
       <c r="P5" s="0">
-        <v>1.209798581465674</v>
+        <v>1.1738412390613826</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.251394373672144</v>
+        <v>-1.1620512795049742</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.010091080292089688</v>
+        <v>-0.066659715322901061</v>
       </c>
       <c r="S5" s="0">
-        <v>1.2531827458401508</v>
+        <v>1.2890605448091754</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -484,61 +496,61 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>42186</v>
+        <v>42370</v>
       </c>
       <c r="B6" s="0">
-        <v>0.378135445809194</v>
+        <v>0.070441129874581843</v>
       </c>
       <c r="C6" s="0">
-        <v>2.008130223725475</v>
+        <v>1.7299667377875181</v>
       </c>
       <c r="D6" s="0">
-        <v>3.5442195651619945</v>
+        <v>3.513152082777097</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.32859701203914227</v>
+        <v>-0.47174450960919212</v>
       </c>
       <c r="F6" s="0">
-        <v>0.95947092382204979</v>
+        <v>1.0918585804682706</v>
       </c>
       <c r="G6" s="0">
-        <v>2.2785221388437784</v>
+        <v>2.6721843292063294</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.4408920985006262e-16</v>
+        <v>-5.5511151231257827e-16</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>4.8572257327350599e-16</v>
+        <v>5.5511151231257827e-16</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.122333125742784</v>
+        <v>-0.55527514477602913</v>
       </c>
       <c r="L6" s="0">
-        <v>0.046712188500376353</v>
+        <v>0.028496019480547721</v>
       </c>
       <c r="M6" s="0">
-        <v>1.1182814825249823</v>
+        <v>0.55238617671868884</v>
       </c>
       <c r="N6" s="0">
-        <v>-1.2839844167298913</v>
+        <v>-1.1667157211236165</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.044718067202327544</v>
+        <v>0.056796918898428382</v>
       </c>
       <c r="P6" s="0">
-        <v>1.2439545857311085</v>
+        <v>1.1842146071885278</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.3027986570430694</v>
+        <v>-1.2682673482614275</v>
       </c>
       <c r="R6" s="0">
-        <v>0.068275295272451728</v>
+        <v>-0.021447909610970577</v>
       </c>
       <c r="S6" s="0">
-        <v>1.2763493789177556</v>
+        <v>1.239955057833197</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -552,61 +564,61 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>42278</v>
+        <v>42461</v>
       </c>
       <c r="B7" s="0">
-        <v>0.30065911323196542</v>
+        <v>-0.12139672656094258</v>
       </c>
       <c r="C7" s="0">
-        <v>1.9437514848738799</v>
+        <v>1.7424493528376148</v>
       </c>
       <c r="D7" s="0">
-        <v>3.6026523243098065</v>
+        <v>3.5119234042255796</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.4445784018456948</v>
+        <v>-0.5550048281736446</v>
       </c>
       <c r="F7" s="0">
-        <v>1.0476882037273765</v>
+        <v>1.0994939077478367</v>
       </c>
       <c r="G7" s="0">
-        <v>2.4494829766329937</v>
+        <v>2.8978540778407398</v>
       </c>
       <c r="H7" s="0">
-        <v>-5.5511151231257827e-16</v>
+        <v>-1.1312858950930926</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.044881453931228887</v>
       </c>
       <c r="J7" s="0">
-        <v>5.5511151231257827e-16</v>
+        <v>1.1943118226831821</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.56151066593359222</v>
+        <v>-1.1988918292571853</v>
       </c>
       <c r="L7" s="0">
-        <v>0.0009208902649868872</v>
+        <v>-0.075791001917461215</v>
       </c>
       <c r="M7" s="0">
-        <v>0.59042436936441189</v>
+        <v>1.2657246691827666</v>
       </c>
       <c r="N7" s="0">
-        <v>-1.233031901247498</v>
+        <v>-1.253756798396418</v>
       </c>
       <c r="O7" s="0">
-        <v>0.010341108891336707</v>
+        <v>-0.058518795465140286</v>
       </c>
       <c r="P7" s="0">
-        <v>1.2255586093780846</v>
+        <v>1.2247783593248189</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.1482593457486754</v>
+        <v>-1.2565129215900326</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.021774729825402815</v>
+        <v>0.050850705581226341</v>
       </c>
       <c r="S7" s="0">
-        <v>1.2712410035752055</v>
+        <v>1.2647212001935935</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -620,61 +632,61 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>42370</v>
+        <v>42552</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13240068245123293</v>
+        <v>-0.19730284970137968</v>
       </c>
       <c r="C8" s="0">
-        <v>1.8008971504870437</v>
+        <v>1.7023485556664799</v>
       </c>
       <c r="D8" s="0">
-        <v>3.5421454440810991</v>
+        <v>3.6472602761267789</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.49828582894765489</v>
+        <v>-0.62530321808627454</v>
       </c>
       <c r="F8" s="0">
-        <v>1.0865380600648984</v>
+        <v>1.1916959373896112</v>
       </c>
       <c r="G8" s="0">
-        <v>2.6854941761438202</v>
+        <v>3.1963029241178784</v>
       </c>
       <c r="H8" s="0">
-        <v>-5.5511151231257827e-16</v>
+        <v>-1.5557020107137336</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.075844554345531862</v>
       </c>
       <c r="J8" s="0">
-        <v>6.6613381477509392e-16</v>
+        <v>1.6946162173132513</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.59266518961307468</v>
+        <v>-1.3403342347015428</v>
       </c>
       <c r="L8" s="0">
-        <v>0.0069740257336923656</v>
+        <v>0.026930300772384778</v>
       </c>
       <c r="M8" s="0">
-        <v>0.57748205332064839</v>
+        <v>1.1778836933027153</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.2465638965742487</v>
+        <v>-1.3089327918363947</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.00034528053601062467</v>
+        <v>-0.020282242626582146</v>
       </c>
       <c r="P8" s="0">
-        <v>1.2343548592304661</v>
+        <v>1.2170293687680052</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.2500631604284025</v>
+        <v>-1.2161996756269202</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.019262689558097963</v>
+        <v>0.019188090325607664</v>
       </c>
       <c r="S8" s="0">
-        <v>1.2561860512212815</v>
+        <v>1.3241006121713097</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -688,61 +700,61 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>42461</v>
+        <v>42644</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.021573125508916213</v>
+        <v>-0.39592379229223995</v>
       </c>
       <c r="C9" s="0">
-        <v>1.7727843773713132</v>
+        <v>1.5531507683167489</v>
       </c>
       <c r="D9" s="0">
-        <v>3.6840621544167917</v>
+        <v>3.6339727456241011</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.6347927878679267</v>
+        <v>-0.79585856448624503</v>
       </c>
       <c r="F9" s="0">
-        <v>1.1044866493571948</v>
+        <v>1.1906383198355963</v>
       </c>
       <c r="G9" s="0">
-        <v>2.9449828028383873</v>
+        <v>3.2848122566452704</v>
       </c>
       <c r="H9" s="0">
-        <v>-1.1464169148559065</v>
+        <v>-1.9134161987504206</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0040069247956275866</v>
+        <v>0.035919465411010043</v>
       </c>
       <c r="J9" s="0">
-        <v>1.1128064896052727</v>
+        <v>2.1990966085480705</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.2100433231878349</v>
+        <v>-1.3183487439816131</v>
       </c>
       <c r="L9" s="0">
-        <v>0.039469180792241272</v>
+        <v>0.046866968696590537</v>
       </c>
       <c r="M9" s="0">
-        <v>1.2641383554109176</v>
+        <v>1.3076590279891465</v>
       </c>
       <c r="N9" s="0">
-        <v>-1.3688832122905663</v>
+        <v>-1.2555321337407699</v>
       </c>
       <c r="O9" s="0">
-        <v>-0.050691497826491974</v>
+        <v>0.024804245237299221</v>
       </c>
       <c r="P9" s="0">
-        <v>1.2390780015630298</v>
+        <v>1.3160986391805976</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.3474031756649851</v>
+        <v>-1.260987756757096</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.039179721436586455</v>
+        <v>-0.037827070420048015</v>
       </c>
       <c r="S9" s="0">
-        <v>1.2491487174327491</v>
+        <v>1.3200880804649766</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>

--- a/PlainTimeInvariant/output/condForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/condForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="308" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="468" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +79,48 @@
   </si>
   <si>
     <t>Oil_3</t>
+  </si>
+  <si>
+    <t>GDP_4</t>
+  </si>
+  <si>
+    <t>GDP_5</t>
+  </si>
+  <si>
+    <t>CPI_4</t>
+  </si>
+  <si>
+    <t>CPI_5</t>
+  </si>
+  <si>
+    <t>STN_4</t>
+  </si>
+  <si>
+    <t>STN_5</t>
+  </si>
+  <si>
+    <t>DEM_4</t>
+  </si>
+  <si>
+    <t>DEM_5</t>
+  </si>
+  <si>
+    <t>SUP_4</t>
+  </si>
+  <si>
+    <t>SUP_5</t>
+  </si>
+  <si>
+    <t>POL_4</t>
+  </si>
+  <si>
+    <t>POL_5</t>
+  </si>
+  <si>
+    <t>Oil_4</t>
+  </si>
+  <si>
+    <t>Oil_5</t>
   </si>
 </sst>
 </file>
@@ -124,34 +166,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="16.28515625" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true"/>
     <col min="10" max="10" width="15.5703125" customWidth="true"/>
-    <col min="11" max="11" width="13.42578125" customWidth="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true"/>
+    <col min="11" max="11" width="12.42578125" customWidth="true"/>
+    <col min="12" max="12" width="14.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.42578125" customWidth="true"/>
-    <col min="15" max="15" width="16.42578125" customWidth="true"/>
+    <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="13.42578125" customWidth="true"/>
     <col min="18" max="18" width="14.42578125" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
     <col min="22" max="22" width="5.7109375" customWidth="true"/>
+    <col min="23" max="23" width="13.42578125" customWidth="true"/>
+    <col min="24" max="24" width="14.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="13.42578125" customWidth="true"/>
+    <col min="29" max="29" width="15.42578125" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="5.7109375" customWidth="true"/>
+    <col min="33" max="33" width="5.7109375" customWidth="true"/>
+    <col min="34" max="34" width="5.7109375" customWidth="true"/>
+    <col min="35" max="35" width="5.7109375" customWidth="true"/>
+    <col min="36" max="36" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -221,200 +277,294 @@
       <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>42005</v>
+        <v>41821</v>
       </c>
       <c r="B2" s="0">
-        <v>1.2313890251102779</v>
+        <v>1.9302901539999999</v>
       </c>
       <c r="C2" s="0">
-        <v>2.3649726304010628</v>
+        <v>1.9302901539999999</v>
       </c>
       <c r="D2" s="0">
-        <v>3.4404460672422017</v>
+        <v>1.9302901539999999</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.042340329047882819</v>
+        <v>1.2830366820000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.74558655420226516</v>
+        <v>1.2830366820000001</v>
       </c>
       <c r="G2" s="0">
-        <v>1.4886763502187623</v>
+        <v>1.2830366820000001</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.91999893104370389</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="I2" s="0">
-        <v>0.070297198895088744</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="J2" s="0">
-        <v>1.0338221883306029</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="K2" s="0">
-        <v>-1.1756717012727527</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.032692191713265331</v>
+        <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>1.162613385440558</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>-1.3250252499523332</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>0.030613796706123728</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1.1966645240176637</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>-1.1683368586691536</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0.028077961234970177</v>
+        <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>1.2453359562301023</v>
-      </c>
-      <c r="T2" s="0">
-        <v>94.319999999999993</v>
-      </c>
-      <c r="U2" s="0">
-        <v>94.319999999999993</v>
-      </c>
-      <c r="V2" s="0">
-        <v>94.319999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0">
+        <v>0</v>
+      </c>
+      <c r="X2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>42095</v>
+        <v>41913</v>
       </c>
       <c r="B3" s="0">
-        <v>0.81499517941979116</v>
+        <v>2.6780032060000001</v>
       </c>
       <c r="C3" s="0">
-        <v>2.179873526972345</v>
+        <v>2.6780032060000001</v>
       </c>
       <c r="D3" s="0">
-        <v>3.5356901613471647</v>
+        <v>2.6780032060000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.22907868752375782</v>
+        <v>0.62355225199999997</v>
       </c>
       <c r="F3" s="0">
-        <v>0.84571617095214624</v>
+        <v>0.62355225199999997</v>
       </c>
       <c r="G3" s="0">
-        <v>1.9098801683532438</v>
+        <v>0.62355225199999997</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.82711592448819804</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>0.073457831755862707</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="J3" s="0">
-        <v>1.0434792745710433</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.1669288134878211</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0.01422520675246379</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>1.1022278815375333</v>
+        <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>-1.1778444845425318</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>-0.00085568452549777962</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1.2498931065213437</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>-1.2439112362149856</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
-        <v>0.024752990650924567</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>1.2324229458457472</v>
-      </c>
-      <c r="T3" s="0">
-        <v>94.319999999999993</v>
-      </c>
-      <c r="U3" s="0">
-        <v>94.319999999999993</v>
-      </c>
-      <c r="V3" s="0">
-        <v>94.319999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0">
+        <v>0</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>42186</v>
+        <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>0.43753370814950876</v>
+        <v>1.4689020679406328</v>
       </c>
       <c r="C4" s="0">
-        <v>1.9711650189086778</v>
+        <v>2.6170403520824275</v>
       </c>
       <c r="D4" s="0">
-        <v>3.5345179659495005</v>
+        <v>3.8508185032881395</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.35411983792676199</v>
+        <v>-0.30839817995650881</v>
       </c>
       <c r="F4" s="0">
-        <v>0.9597124412140946</v>
+        <v>0.5604334136360738</v>
       </c>
       <c r="G4" s="0">
-        <v>2.2104002656310273</v>
+        <v>1.3567883847609956</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.4408920985006262e-16</v>
+        <v>-0.77024752331059521</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.051326719334706145</v>
       </c>
       <c r="J4" s="0">
-        <v>4.4408920985006262e-16</v>
+        <v>0.80338905354268331</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.0516293746123251</v>
+        <v>-1.1556219283206393</v>
       </c>
       <c r="L4" s="0">
-        <v>0.026356218787403702</v>
+        <v>-0.018983579142348387</v>
       </c>
       <c r="M4" s="0">
-        <v>1.1743027929287893</v>
+        <v>1.1720281619303714</v>
       </c>
       <c r="N4" s="0">
-        <v>-1.2299606357827217</v>
+        <v>-1.3518466726571425</v>
       </c>
       <c r="O4" s="0">
-        <v>-0.054598872524538891</v>
+        <v>-0.089220810548299362</v>
       </c>
       <c r="P4" s="0">
-        <v>1.1850105788773488</v>
+        <v>1.1853450272443737</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.2460016231609354</v>
+        <v>-1.1229985134677298</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.019454098478633382</v>
+        <v>0.02337210093033408</v>
       </c>
       <c r="S4" s="0">
-        <v>1.1791382821287795</v>
+        <v>1.108537274286526</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -423,66 +573,108 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W4" s="0">
+        <v>-0.75939504070585295</v>
+      </c>
+      <c r="X4" s="0">
+        <v>0.05070513815341586</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.87107450588804081</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>1.2318703210964279</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>-1.290474037118192</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>-0.8588481938172674</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>-0.072360946464485196</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.73594568867396015</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1.138828060045431</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ4" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>42278</v>
+        <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15073724901298791</v>
+        <v>0.78998156890115412</v>
       </c>
       <c r="C5" s="0">
-        <v>1.8131169625692607</v>
+        <v>2.5582789721884649</v>
       </c>
       <c r="D5" s="0">
-        <v>3.4517967642665326</v>
+        <v>4.2607791767240029</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.44160735062541023</v>
+        <v>-0.66493818035069707</v>
       </c>
       <c r="F5" s="0">
-        <v>1.0401292375760625</v>
+        <v>0.5278543741475632</v>
       </c>
       <c r="G5" s="0">
-        <v>2.4732244039297013</v>
+        <v>1.6714039662361435</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5511151231257827e-16</v>
+        <v>-4.4408920985006262e-16</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>5.1000870193718129e-16</v>
+        <v>4.9960036108132044e-16</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.57930951980787948</v>
+        <v>-1.1690568356701878</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.0094155963721093642</v>
+        <v>0.041179486855558847</v>
       </c>
       <c r="M5" s="0">
-        <v>0.58514311685648801</v>
+        <v>1.2106154311347983</v>
       </c>
       <c r="N5" s="0">
-        <v>-1.2867160975307863</v>
+        <v>-1.23546962088164</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.019283545066059237</v>
+        <v>0.049714496291733704</v>
       </c>
       <c r="P5" s="0">
-        <v>1.1738412390613826</v>
+        <v>1.2406095734719462</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.1620512795049742</v>
+        <v>-1.161243560455997</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.066659715322901061</v>
+        <v>-0.023274064734267397</v>
       </c>
       <c r="S5" s="0">
-        <v>1.2890605448091754</v>
+        <v>1.0971103264701125</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -491,66 +683,108 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W5" s="0">
+        <v>-0.79537177705024875</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.039566864830606202</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0.89769316338218141</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>1.3090545249406293</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>-1.1938185744633842</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>-0.78308592343027228</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>-0.0051790051021184799</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.794697033401639</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>1.2441452084927209</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ5" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>42370</v>
+        <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.070441129874581843</v>
+        <v>0.34570967385340468</v>
       </c>
       <c r="C6" s="0">
-        <v>1.7299667377875181</v>
+        <v>2.4798270538556562</v>
       </c>
       <c r="D6" s="0">
-        <v>3.513152082777097</v>
+        <v>4.4575954901535715</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.47174450960919212</v>
+        <v>-0.89557156364283019</v>
       </c>
       <c r="F6" s="0">
-        <v>1.0918585804682706</v>
+        <v>0.5767985783978542</v>
       </c>
       <c r="G6" s="0">
-        <v>2.6721843292063294</v>
+        <v>1.9254817011629157</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.5511151231257827e-16</v>
+        <v>-4.7184478546569153e-16</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>5.5511151231257827e-16</v>
+        <v>6.106226635438361e-16</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.55527514477602913</v>
+        <v>-1.0640144234884295</v>
       </c>
       <c r="L6" s="0">
-        <v>0.028496019480547721</v>
+        <v>0.069986056427948445</v>
       </c>
       <c r="M6" s="0">
-        <v>0.55238617671868884</v>
+        <v>1.1086863741279287</v>
       </c>
       <c r="N6" s="0">
-        <v>-1.1667157211236165</v>
+        <v>-1.0714116161374905</v>
       </c>
       <c r="O6" s="0">
-        <v>0.056796918898428382</v>
+        <v>0.042648054389598108</v>
       </c>
       <c r="P6" s="0">
-        <v>1.1842146071885278</v>
+        <v>1.1057822768097263</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.2682673482614275</v>
+        <v>-0.9200221391767458</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.021447909610970577</v>
+        <v>-0.014778183455522998</v>
       </c>
       <c r="S6" s="0">
-        <v>1.239955057833197</v>
+        <v>0.94828325840065131</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -559,66 +793,108 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W6" s="0">
+        <v>-0.90353581791707405</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-0.059258333409020397</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.74733343005335762</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>1.155383665050087</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>-1.2066886558203027</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>-0.7470787772888261</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>0.01276620728665287</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>0.82776609448667604</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>1.3184271023854985</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ6" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>42461</v>
+        <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.12139672656094258</v>
+        <v>0.11809780288229621</v>
       </c>
       <c r="C7" s="0">
-        <v>1.7424493528376148</v>
+        <v>2.3720640399150112</v>
       </c>
       <c r="D7" s="0">
-        <v>3.5119234042255796</v>
+        <v>4.6312973018688384</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.5550048281736446</v>
+        <v>-1.178643867538905</v>
       </c>
       <c r="F7" s="0">
-        <v>1.0994939077478367</v>
+        <v>0.57645233591613554</v>
       </c>
       <c r="G7" s="0">
-        <v>2.8978540778407398</v>
+        <v>2.1277600449218825</v>
       </c>
       <c r="H7" s="0">
-        <v>-1.1312858950930926</v>
+        <v>-5.5511151231257827e-16</v>
       </c>
       <c r="I7" s="0">
-        <v>0.044881453931228887</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1.1943118226831821</v>
+        <v>6.6613381477509392e-16</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.1988918292571853</v>
+        <v>-1.04379213646334</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.075791001917461215</v>
+        <v>0.023796832086499662</v>
       </c>
       <c r="M7" s="0">
-        <v>1.2657246691827666</v>
+        <v>0.98641667766522545</v>
       </c>
       <c r="N7" s="0">
-        <v>-1.253756798396418</v>
+        <v>-1.064994244146678</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.058518795465140286</v>
+        <v>-0.062142284778442969</v>
       </c>
       <c r="P7" s="0">
-        <v>1.2247783593248189</v>
+        <v>1.1476009904157904</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.2565129215900326</v>
+        <v>-0.93056301533739449</v>
       </c>
       <c r="R7" s="0">
-        <v>0.050850705581226341</v>
+        <v>-0.03357256964661598</v>
       </c>
       <c r="S7" s="0">
-        <v>1.2647212001935935</v>
+        <v>1.0010034435104069</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -627,66 +903,108 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W7" s="0">
+        <v>-0.75940185552091455</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0.026677126687209323</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0.82067775460903047</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>1.2749293939150337</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>-1.2935030068049636</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>-0.91734133522767802</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>-0.0422314559777833</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>0.76340928542243969</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>1.2190606072774535</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ7" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>42552</v>
+        <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.19730284970137968</v>
+        <v>-0.063627004702690115</v>
       </c>
       <c r="C8" s="0">
-        <v>1.7023485556664799</v>
+        <v>2.2659277440886294</v>
       </c>
       <c r="D8" s="0">
-        <v>3.6472602761267789</v>
+        <v>4.8103270039180366</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.62530321808627454</v>
+        <v>-1.4358557752651104</v>
       </c>
       <c r="F8" s="0">
-        <v>1.1916959373896112</v>
+        <v>0.53008504694129677</v>
       </c>
       <c r="G8" s="0">
-        <v>3.1963029241178784</v>
+        <v>2.4215193568523832</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.5557020107137336</v>
+        <v>-5.5511151231257827e-16</v>
       </c>
       <c r="I8" s="0">
-        <v>0.075844554345531862</v>
+        <v>2.7755575615628914e-17</v>
       </c>
       <c r="J8" s="0">
-        <v>1.6946162173132513</v>
+        <v>6.6613381477509392e-16</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.3403342347015428</v>
+        <v>-1.0428658861178466</v>
       </c>
       <c r="L8" s="0">
-        <v>0.026930300772384778</v>
+        <v>0.078361352425724118</v>
       </c>
       <c r="M8" s="0">
-        <v>1.1778836933027153</v>
+        <v>1.1072879349690692</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.3089327918363947</v>
+        <v>-1.1031602881554603</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.020282242626582146</v>
+        <v>0.0406476501054433</v>
       </c>
       <c r="P8" s="0">
-        <v>1.2170293687680052</v>
+        <v>1.0761332565865902</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.2161996756269202</v>
+        <v>-0.94533303709162886</v>
       </c>
       <c r="R8" s="0">
-        <v>0.019188090325607664</v>
+        <v>-0.024272947092436797</v>
       </c>
       <c r="S8" s="0">
-        <v>1.3241006121713097</v>
+        <v>0.94751728231458843</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -695,66 +1013,108 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W8" s="0">
+        <v>-0.85610238320251941</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.015467486437977501</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.76312440710580431</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>1.1422708993455757</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>-1.2790112069100963</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>-0.83056171775957743</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>-0.015046644892561512</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>0.86350833226734469</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>1.2326857875368524</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ8" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>42644</v>
+        <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.39592379229223995</v>
+        <v>-0.4624621160827006</v>
       </c>
       <c r="C9" s="0">
-        <v>1.5531507683167489</v>
+        <v>2.2769246213965042</v>
       </c>
       <c r="D9" s="0">
-        <v>3.6339727456241011</v>
+        <v>4.8360763521350245</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.79585856448624503</v>
+        <v>-1.7129573583706179</v>
       </c>
       <c r="F9" s="0">
-        <v>1.1906383198355963</v>
+        <v>0.52013094643193603</v>
       </c>
       <c r="G9" s="0">
-        <v>3.2848122566452704</v>
+        <v>2.5583019218571139</v>
       </c>
       <c r="H9" s="0">
-        <v>-1.9134161987504206</v>
+        <v>-1.3948602357933262</v>
       </c>
       <c r="I9" s="0">
-        <v>0.035919465411010043</v>
+        <v>-0.12758114306296148</v>
       </c>
       <c r="J9" s="0">
-        <v>2.1990966085480705</v>
+        <v>1.0661858275500133</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.3183487439816131</v>
+        <v>-1.2383500230146365</v>
       </c>
       <c r="L9" s="0">
-        <v>0.046866968696590537</v>
+        <v>-0.016731359140257598</v>
       </c>
       <c r="M9" s="0">
-        <v>1.3076590279891465</v>
+        <v>1.2396378975591738</v>
       </c>
       <c r="N9" s="0">
-        <v>-1.2555321337407699</v>
+        <v>-1.333841386935777</v>
       </c>
       <c r="O9" s="0">
-        <v>0.024804245237299221</v>
+        <v>0.050092407122100668</v>
       </c>
       <c r="P9" s="0">
-        <v>1.3160986391805976</v>
+        <v>1.3366848238781324</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.260987756757096</v>
+        <v>-1.2678181649847839</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.037827070420048015</v>
+        <v>0.038103030345772032</v>
       </c>
       <c r="S9" s="0">
-        <v>1.3200880804649766</v>
+        <v>1.2874151981705291</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>
@@ -763,6 +1123,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W9" s="0">
+        <v>-0.89272417824975925</v>
+      </c>
+      <c r="X9" s="0">
+        <v>-0.038611377983480855</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0.76582349232668956</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>1.1914303305788838</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>-1.2893141518425379</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>-0.80702897549477015</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>-0.040800807309082018</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>0.74313361904830644</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>1.1400597445635576</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ9" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -771,58 +1173,58 @@
         <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.18406910409762633</v>
+        <v>-0.62542334708632352</v>
       </c>
       <c r="C10" s="0">
-        <v>1.7677909464075992</v>
+        <v>2.2003002798641695</v>
       </c>
       <c r="D10" s="0">
-        <v>3.7466427676765668</v>
+        <v>4.8623727340873213</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.68632644003930099</v>
+        <v>-1.886227478281568</v>
       </c>
       <c r="F10" s="0">
-        <v>1.2243128252450572</v>
+        <v>0.43178561844275443</v>
       </c>
       <c r="G10" s="0">
-        <v>3.0382353354733773</v>
+        <v>2.6998033161492865</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.6386971513040414</v>
+        <v>-1.9972240013410074</v>
       </c>
       <c r="I10" s="0">
-        <v>0.024125378071984727</v>
+        <v>-0.19075572732354623</v>
       </c>
       <c r="J10" s="0">
-        <v>1.6532810142814789</v>
+        <v>1.5295008608469529</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.2833365474191649</v>
+        <v>-1.326942835867059</v>
       </c>
       <c r="L10" s="0">
-        <v>0.059157228044116703</v>
+        <v>0.020612862016621082</v>
       </c>
       <c r="M10" s="0">
-        <v>1.2184868085850971</v>
+        <v>1.2634304912444745</v>
       </c>
       <c r="N10" s="0">
-        <v>-1.2539598274225412</v>
+        <v>-1.2371432734737504</v>
       </c>
       <c r="O10" s="0">
-        <v>-0.042724686016458707</v>
+        <v>0.017851510122360928</v>
       </c>
       <c r="P10" s="0">
-        <v>1.2725952876308306</v>
+        <v>1.2524829245081306</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1.2824537606619406</v>
+        <v>-1.2483435507009695</v>
       </c>
       <c r="R10" s="0">
-        <v>0.0061523299410581635</v>
+        <v>-0.031603194741178661</v>
       </c>
       <c r="S10" s="0">
-        <v>1.2170603746157433</v>
+        <v>1.2024928831697825</v>
       </c>
       <c r="T10" s="0">
         <v>94.319999999999993</v>
@@ -831,6 +1233,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W10" s="0">
+        <v>-0.85271202449975514</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0.019664576371378514</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.86391418226830197</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>1.2417559164630758</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>-1.3138855902841653</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>-0.8433639054420119</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>0.034028719069892507</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0.8778471872611866</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>1.328024141655038</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ10" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -839,58 +1283,58 @@
         <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.32594100191457009</v>
+        <v>-0.70844391574927323</v>
       </c>
       <c r="C11" s="0">
-        <v>1.7043559348771737</v>
+        <v>2.167248990980819</v>
       </c>
       <c r="D11" s="0">
-        <v>3.4988069912261075</v>
+        <v>4.7910948657605807</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.94400054680326151</v>
+        <v>-2.1296869817879625</v>
       </c>
       <c r="F11" s="0">
-        <v>1.2958548736683133</v>
+        <v>0.48944187011479795</v>
       </c>
       <c r="G11" s="0">
-        <v>3.1150376799857531</v>
+        <v>2.9154098228483631</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.0835392908240213</v>
+        <v>-2.514675517121109</v>
       </c>
       <c r="I11" s="0">
-        <v>0.036621320782692326</v>
+        <v>-0.30099924508604836</v>
       </c>
       <c r="J11" s="0">
-        <v>2.0995620985278536</v>
+        <v>1.8063933505462042</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.314598078216958</v>
+        <v>-1.2680385808620489</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.018280606726321893</v>
+        <v>-0.02231173677922739</v>
       </c>
       <c r="M11" s="0">
-        <v>1.2417855528739836</v>
+        <v>1.2683401787500681</v>
       </c>
       <c r="N11" s="0">
-        <v>-1.3577978249905431</v>
+        <v>-1.1993332482954775</v>
       </c>
       <c r="O11" s="0">
-        <v>-0.0078818845437880532</v>
+        <v>0.034207134648683454</v>
       </c>
       <c r="P11" s="0">
-        <v>1.2570333432920922</v>
+        <v>1.2488690862439724</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1.2070527577999342</v>
+        <v>-1.3999101254248125</v>
       </c>
       <c r="R11" s="0">
-        <v>0.033142463961551093</v>
+        <v>-0.02658805004213638</v>
       </c>
       <c r="S11" s="0">
-        <v>1.203496016520202</v>
+        <v>1.1864898270676412</v>
       </c>
       <c r="T11" s="0">
         <v>94.319999999999993</v>
@@ -899,6 +1343,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W11" s="0">
+        <v>-0.87238843084570794</v>
+      </c>
+      <c r="X11" s="0">
+        <v>-0.072175805970271081</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.79864178938404362</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>1.2440186519919485</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>-1.2516383303334022</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>-0.81576950649164592</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>0.013801816440329653</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>0.79694868504250826</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>1.2388910188023798</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ11" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
